--- a/MainCourante/MainCourante.xlsx
+++ b/MainCourante/MainCourante.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Dossier</t>
   </si>
@@ -56,10 +56,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>55</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
   <si>
     <t>None</t>
@@ -98,10 +98,13 @@
     <t>3</t>
   </si>
   <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>juju</t>
+  </si>
+  <si>
+    <t>jujuuu</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,13 +570,11 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s"/>
       <c r="E4" t="s"/>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
+      <c r="F4" t="s"/>
       <c r="G4" t="s"/>
       <c r="H4" t="s"/>
       <c r="I4" t="s"/>
@@ -585,6 +586,35 @@
       </c>
       <c r="L4" t="s"/>
       <c r="M4" t="s"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s"/>
+      <c r="M5" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/MainCourante/MainCourante.xlsx
+++ b/MainCourante/MainCourante.xlsx
@@ -56,55 +56,55 @@
     <t>1</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>24</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>signaleurs : chute vélo dernier virage</t>
+  </si>
+  <si>
+    <t>Nom1</t>
+  </si>
+  <si>
+    <t>roue chassse : chute sur épaule droite</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>signaleur</t>
-  </si>
-  <si>
-    <t>L.S.P.</t>
-  </si>
-  <si>
-    <t>Durant</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Tombe a velo</t>
-  </si>
-  <si>
-    <t>Desinfection et pansement</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>présetnation spontannée</t>
+  </si>
+  <si>
+    <t>Nom2</t>
+  </si>
+  <si>
+    <t>vue Jean-Claude</t>
+  </si>
+  <si>
+    <t>Une chambre d'hotel</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>juju</t>
-  </si>
-  <si>
-    <t>jujuuu</t>
+    <t>présentation spontanée</t>
+  </si>
+  <si>
+    <t>Nom3</t>
+  </si>
+  <si>
+    <t>vue Jacques</t>
+  </si>
+  <si>
+    <t>Deux baffes</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,111 +510,92 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s"/>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
       <c r="E2" t="s"/>
-      <c r="F2" t="s"/>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
       <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
       <c r="I2" t="s"/>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s"/>
       <c r="M2" t="s"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E3" t="s"/>
       <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
         <v>22</v>
       </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
         <v>23</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s"/>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
       <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
       <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s"/>
       <c r="M4" t="s"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/MainCourante/MainCourante.xlsx
+++ b/MainCourante/MainCourante.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>Dossier</t>
   </si>
@@ -65,13 +65,19 @@
     <t>signaleurs : chute vélo dernier virage</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>Nom1</t>
   </si>
   <si>
     <t>roue chassse : chute sur épaule droite</t>
   </si>
   <si>
-    <t>None</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>3</t>
@@ -92,6 +98,12 @@
     <t>Une chambre d'hotel</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -105,6 +117,33 @@
   </si>
   <si>
     <t>Deux baffes</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>cuisine</t>
+  </si>
+  <si>
+    <t>cédric</t>
+  </si>
+  <si>
+    <t>dada silva</t>
+  </si>
+  <si>
+    <t>le ventre garbouille</t>
+  </si>
+  <si>
+    <t>raclette</t>
   </si>
 </sst>
 </file>
@@ -440,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,89 +552,152 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s"/>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
       <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
       <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s"/>
-      <c r="M2" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
       <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
       <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s"/>
+      <c r="M5" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
